--- a/Identifying_CalvingEvents/Eventos_calving.xlsx
+++ b/Identifying_CalvingEvents/Eventos_calving.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriarojas/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA7FD79-A351-CE43-9C3B-AAA8989771FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A1DA03-A1BA-3A4F-BDF4-663D05DD32A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14340" xr2:uid="{EB00BB18-1F77-8F4A-A1D9-A18F6842263B}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:M358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,7 +850,7 @@
         <v>-50.986400000000003</v>
       </c>
       <c r="I11" s="8">
-        <v>0.61527777777777781</v>
+        <v>0.61535879629629631</v>
       </c>
       <c r="J11" s="3">
         <v>-0.88</v>

--- a/Identifying_CalvingEvents/Eventos_calving.xlsx
+++ b/Identifying_CalvingEvents/Eventos_calving.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriarojas/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A1DA03-A1BA-3A4F-BDF4-663D05DD32A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102CEFFB-9C32-734C-AB4A-14D1FA45CB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14340" xr2:uid="{EB00BB18-1F77-8F4A-A1D9-A18F6842263B}"/>
   </bookViews>
@@ -85,7 +85,7 @@
     <t>Magnitud Local (Ml) LILLIE</t>
   </si>
   <si>
-    <t>Sentenial1</t>
+    <t>Sentinel2</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:M358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
